--- a/blood-sword/checklist.xlsx
+++ b/blood-sword/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/blood-sword/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{820B59D2-08B1-3645-B6D8-117671EF244E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29F2733-C987-124B-8B15-6B828420CC32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="660" windowWidth="28040" windowHeight="17440" xr2:uid="{42C7A6A2-F33F-8840-8A90-0CE4F83F5449}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>year</t>
   </si>
@@ -93,6 +93,21 @@
   </si>
   <si>
     <t>Doomwalk</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
   </si>
 </sst>
 </file>
@@ -136,9 +151,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F8D137-7265-C64E-AB09-E6E4E9F88514}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,7 +483,7 @@
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +502,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1988</v>
       </c>
@@ -506,8 +525,11 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1988</v>
       </c>
@@ -526,8 +548,11 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1989</v>
       </c>
@@ -546,8 +571,11 @@
       <c r="F4" t="s">
         <v>10</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1989</v>
       </c>
@@ -565,6 +593,9 @@
       </c>
       <c r="F5" t="s">
         <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
